--- a/config/label.xlsx
+++ b/config/label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacabun\Desktop\UWBsystem-station\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68683C-9E72-42C1-A5AE-0310279BD4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD443B4-ADB0-4D09-A5DA-4601A4A84F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +414,14 @@
       <c r="I1">
         <v>8</v>
       </c>
+      <c r="J1">
+        <v>17</v>
+      </c>
+      <c r="K1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,6 +448,12 @@
       </c>
       <c r="I2">
         <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
